--- a/final_scores.xlsx
+++ b/final_scores.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kilianzell/Desktop/CS502_SUBMISSION/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACACEFD0-8DE2-DA42-8D4A-1E80F616E5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA7F670-92D3-AC4D-9F48-B118DD10D7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{4591BD1D-650A-4B43-9DF4-A01C78A19F09}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL_SEG" sheetId="23" r:id="rId1"/>
-    <sheet name="FINAL_CLASS" sheetId="22" r:id="rId2"/>
+    <sheet name="FINAL_CLASS" sheetId="24" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
   <si>
     <t>simple_cnn</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>40 epchs</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>const. neg.</t>
   </si>
 </sst>
 </file>
@@ -295,21 +301,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -623,26 +629,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531AE17C-0835-C946-A84D-02EAD90A8634}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
@@ -683,311 +690,279 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.49780000000000002</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.31090000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.73280000000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C7" s="1">
         <v>0.94769999999999999</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D7" s="1">
         <v>0.89510000000000001</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E7" s="1">
         <v>0.94340000000000002</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F7" s="1">
         <v>0.8891</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G7" s="1">
         <v>0.94279999999999997</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H7" s="1">
         <v>0.8851</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6">
-        <f>AVERAGE(C4,E4,G4)</f>
+      <c r="C8" s="6">
+        <f>AVERAGE(C7,E7,G7)</f>
         <v>0.94463333333333332</v>
       </c>
-      <c r="D5" s="7">
-        <f>AVERAGE(D4,F4,H4)</f>
+      <c r="D8" s="7">
+        <f>AVERAGE(D7,F7,H7)</f>
         <v>0.88976666666666659</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1">
-        <f>_xlfn.STDEV.P(C4,E4,G4)</f>
+      <c r="C9" s="1">
+        <f>_xlfn.STDEV.P(C7,E7,G7)</f>
         <v>2.1822516404443868E-3</v>
       </c>
-      <c r="D6" s="1">
-        <f>_xlfn.STDEV.P(D4,F4,H4)</f>
+      <c r="D9" s="1">
+        <f>_xlfn.STDEV.P(D7,F7,H7)</f>
         <v>4.1096093353126546E-3</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="6">
-        <f>CONFIDENCE(J3,C6,3)</f>
-        <v>2.5875666635771836E-3</v>
-      </c>
-      <c r="D7" s="7">
-        <f>CONFIDENCE(J3,D6,3)</f>
-        <v>4.8728972952977881E-3</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.95209999999999995</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.94820000000000004</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.95130000000000003</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.90500000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6">
+        <f>CONFIDENCE(J3,C9,3)</f>
+        <v>2.5875666635771836E-3</v>
+      </c>
+      <c r="D10" s="7">
+        <f>CONFIDENCE(J3,D9,3)</f>
+        <v>4.8728972952977881E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.95209999999999995</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.94820000000000004</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6">
-        <f>AVERAGE(C9,E9,G9)</f>
+      <c r="C13" s="6">
+        <f>AVERAGE(C12,E12,G12)</f>
         <v>0.95053333333333345</v>
       </c>
-      <c r="D10" s="7">
-        <f>AVERAGE(D9,F9,H9)</f>
+      <c r="D13" s="7">
+        <f>AVERAGE(D12,F12,H12)</f>
         <v>0.90399999999999991</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1">
-        <f>_xlfn.STDEV.P(C9,E9,G9)</f>
+      <c r="C14" s="1">
+        <f>_xlfn.STDEV.P(C12,E12,G12)</f>
         <v>1.6819301082056839E-3</v>
       </c>
-      <c r="D11" s="1">
-        <f>_xlfn.STDEV.P(D9,F9,H9)</f>
+      <c r="D14" s="1">
+        <f>_xlfn.STDEV.P(D12,F12,H12)</f>
         <v>4.5460605656619558E-3</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="6">
-        <f>CONFIDENCE(J3,C11,3)</f>
-        <v>1.9943191691557368E-3</v>
-      </c>
-      <c r="D12" s="7">
-        <f>CONFIDENCE(J3,D11,3)</f>
-        <v>5.3904116978527204E-3</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.9556</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.91949999999999998</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.95569999999999999</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.92049999999999998</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.95220000000000005</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.91349999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6">
+        <f>CONFIDENCE(J3,C14,3)</f>
+        <v>1.9943191691557368E-3</v>
+      </c>
+      <c r="D15" s="7">
+        <f>CONFIDENCE(J3,D14,3)</f>
+        <v>5.3904116978527204E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.9556</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.91949999999999998</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.95569999999999999</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.92049999999999998</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.95220000000000005</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.91349999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="6">
-        <f>AVERAGE(C14,E14,G14)</f>
+      <c r="C18" s="6">
+        <f>AVERAGE(C17,E17,G17)</f>
         <v>0.95450000000000002</v>
       </c>
-      <c r="D15" s="7">
-        <f>AVERAGE(D14,F14,H14)</f>
+      <c r="D18" s="7">
+        <f>AVERAGE(D17,F17,H17)</f>
         <v>0.91783333333333328</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="1">
-        <f>_xlfn.STDEV.P(C14,E14,G14)</f>
+      <c r="C19" s="1">
+        <f>_xlfn.STDEV.P(C17,E17,G17)</f>
         <v>1.6268579122549684E-3</v>
       </c>
-      <c r="D16" s="1">
-        <f>_xlfn.STDEV.P(D14,F14,H14)</f>
+      <c r="D19" s="1">
+        <f>_xlfn.STDEV.P(D17,F17,H17)</f>
         <v>3.0912061651652374E-3</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="6">
-        <f>CONFIDENCE(J3,C16,3)</f>
-        <v>1.9290182773195217E-3</v>
-      </c>
-      <c r="D17" s="7">
-        <f>CONFIDENCE(J3,D16,3)</f>
-        <v>3.6653435722000431E-3</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.95660000000000001</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.95679999999999998</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0.9234</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.95309999999999995</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.91449999999999998</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="6">
+        <f>CONFIDENCE(J3,C19,3)</f>
+        <v>1.9290182773195217E-3</v>
+      </c>
+      <c r="D20" s="7">
+        <f>CONFIDENCE(J3,D19,3)</f>
+        <v>3.6653435722000431E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.95660000000000001</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.95679999999999998</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.9234</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.91449999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="6">
-        <f>AVERAGE(C19,E19,G19)</f>
+      <c r="C23" s="6">
+        <f>AVERAGE(C22,E22,G22)</f>
         <v>0.9554999999999999</v>
       </c>
-      <c r="D20" s="7">
-        <f>AVERAGE(D19,F19,H19)</f>
+      <c r="D23" s="7">
+        <f>AVERAGE(D22,F22,H22)</f>
         <v>0.91963333333333341</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="1">
-        <f>_xlfn.STDEV.P(C19,E19,G19)</f>
+      <c r="C24" s="1">
+        <f>_xlfn.STDEV.P(C22,E22,G22)</f>
         <v>1.6990193249833098E-3</v>
       </c>
-      <c r="D21" s="1">
-        <f>_xlfn.STDEV.P(D19,F19,H19)</f>
+      <c r="D24" s="1">
+        <f>_xlfn.STDEV.P(D22,F22,H22)</f>
         <v>3.7597281225582868E-3</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="6">
-        <f>CONFIDENCE(J3,C21,3)</f>
+      <c r="C25" s="6">
+        <f>CONFIDENCE(J3,C24,3)</f>
         <v>2.0145824086561198E-3</v>
       </c>
-      <c r="D22" s="7">
-        <f>CONFIDENCE(J3,D21,3)</f>
+      <c r="D25" s="7">
+        <f>CONFIDENCE(J3,D24,3)</f>
         <v>4.4580317749534897E-3</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3">
-    <cfRule type="top10" dxfId="9" priority="10" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="8" priority="5" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="9" priority="5" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="8" priority="10" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C3">
     <cfRule type="top10" dxfId="7" priority="4" percent="1" bottom="1" rank="10"/>
@@ -1010,27 +985,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084B3ED2-B702-8847-A430-22E65B42262B}">
-  <dimension ref="A1:X22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582CD2C8-8568-5441-9E63-22E921A01704}">
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1090,20 +1066,44 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.50119999999999998</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.4904</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.5333</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.1918</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.48680000000000001</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.51229999999999998</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.45250000000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.1681</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.49280000000000002</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.4919</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.4587</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.1633</v>
+      </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -1113,81 +1113,105 @@
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="e">
+      <c r="C5" s="6">
         <f>AVERAGE(C4,G4,K4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D5" s="6" t="e">
+        <v>0.49359999999999998</v>
+      </c>
+      <c r="D5" s="6">
         <f>AVERAGE(D4,H4,L4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E5" s="6" t="e">
+        <v>0.49819999999999998</v>
+      </c>
+      <c r="E5" s="6">
         <f>AVERAGE(E4,I4,M4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="7" t="e">
+        <v>0.48150000000000004</v>
+      </c>
+      <c r="F5" s="7">
         <f>AVERAGE(F4,J4,N4)</f>
-        <v>#DIV/0!</v>
+        <v>0.1744</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="e">
+      <c r="C6" s="1">
         <f>_xlfn.STDEV.P(C4,G4,K4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D6" s="1" t="e">
+        <v>5.905929224093347E-3</v>
+      </c>
+      <c r="D6" s="1">
         <f>_xlfn.STDEV.P(D4,H4,L4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="1" t="e">
+        <v>9.9889939433358242E-3</v>
+      </c>
+      <c r="E6" s="1">
         <f>_xlfn.STDEV.P(E4,I4,M4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="1" t="e">
+        <v>3.6715482656049431E-2</v>
+      </c>
+      <c r="F6" s="1">
         <f>_xlfn.STDEV.P(F4,J4,N4)</f>
-        <v>#DIV/0!</v>
+        <v>1.2458731877683217E-2</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6" t="e">
+      <c r="C7" s="6">
         <f>CONFIDENCE(P$3,C6,3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="6" t="e">
+        <v>7.0028521433936151E-3</v>
+      </c>
+      <c r="D7" s="6">
         <f>CONFIDENCE(P$3,D6,3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="6" t="e">
+        <v>1.1844274625077946E-2</v>
+      </c>
+      <c r="E7" s="6">
         <f>CONFIDENCE(P$3,E6,3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="7" t="e">
+        <v>4.3534740539177011E-2</v>
+      </c>
+      <c r="F7" s="7">
         <f>CONFIDENCE(P$3,F6,3)</f>
-        <v>#DIV/0!</v>
+        <v>1.4772723126731004E-2</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.8952</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.89470000000000005</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.88770000000000004</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1201,97 +1225,93 @@
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="e">
+      <c r="C10" s="6">
         <f>AVERAGE(C9,G9,K9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="6" t="e">
+        <v>0.89253333333333329</v>
+      </c>
+      <c r="D10" s="6">
         <f>AVERAGE(D9,H9,L9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
         <f>AVERAGE(E9,I9,M9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="7" t="e">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
         <f>AVERAGE(F9,J9,N9)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1" t="e">
+      <c r="C11" s="1">
         <f>_xlfn.STDEV.P(C9,G9,K9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D11" s="1" t="e">
+        <v>3.4237730973623449E-3</v>
+      </c>
+      <c r="D11" s="1">
         <f>_xlfn.STDEV.P(D9,H9,L9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
         <f>_xlfn.STDEV.P(E9,I9,M9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
         <f>_xlfn.STDEV.P(F9,J9,N9)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="6" t="e">
+      <c r="C12" s="6">
         <f>CONFIDENCE(P$3,C11,3)</f>
-        <v>#DIV/0!</v>
+        <v>4.0596789876089336E-3</v>
       </c>
       <c r="D12" s="6" t="e">
         <f>CONFIDENCE(P$3,D11,3)</f>
-        <v>#DIV/0!</v>
+        <v>#NUM!</v>
       </c>
       <c r="E12" s="6" t="e">
         <f>CONFIDENCE(P$3,E11,3)</f>
-        <v>#DIV/0!</v>
+        <v>#NUM!</v>
       </c>
       <c r="F12" s="7" t="e">
         <f>CONFIDENCE(P$3,F11,3)</f>
-        <v>#DIV/0!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
-        <v>0.95809999999999995</v>
+        <v>0.92659999999999998</v>
       </c>
       <c r="D14" s="1">
-        <v>0.98309999999999997</v>
+        <v>0.95269999999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.7611</v>
+        <v>0.72370000000000001</v>
       </c>
       <c r="F14" s="1">
-        <v>0.80369999999999997</v>
+        <v>0.69179999999999997</v>
       </c>
       <c r="G14" s="1">
-        <v>0.94810000000000005</v>
+        <v>0.92220000000000002</v>
       </c>
       <c r="H14" s="1">
-        <v>0.96560000000000001</v>
+        <v>0.94940000000000002</v>
       </c>
       <c r="I14" s="1">
-        <v>0.79</v>
+        <v>0.74670000000000003</v>
       </c>
       <c r="J14" s="1">
-        <v>0.75239999999999996</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+        <v>0.69569999999999999</v>
+      </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1307,19 +1327,19 @@
       </c>
       <c r="C15" s="6">
         <f>AVERAGE(C14,G14,K14)</f>
-        <v>0.95310000000000006</v>
+        <v>0.9244</v>
       </c>
       <c r="D15" s="6">
         <f>AVERAGE(D14,H14,L14)</f>
-        <v>0.97435000000000005</v>
+        <v>0.95104999999999995</v>
       </c>
       <c r="E15" s="6">
         <f>AVERAGE(E14,I14,M14)</f>
-        <v>0.77554999999999996</v>
+        <v>0.73520000000000008</v>
       </c>
       <c r="F15" s="7">
         <f>AVERAGE(F14,J14,N14)</f>
-        <v>0.77804999999999991</v>
+        <v>0.69374999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -1328,140 +1348,378 @@
       </c>
       <c r="C16" s="1">
         <f>_xlfn.STDEV.P(C14,G14,K14)</f>
-        <v>4.9999999999999489E-3</v>
+        <v>2.1999999999999797E-3</v>
       </c>
       <c r="D16" s="1">
         <f>_xlfn.STDEV.P(D14,H14,L14)</f>
-        <v>8.74999999999998E-3</v>
+        <v>1.6499999999999848E-3</v>
       </c>
       <c r="E16" s="1">
         <f>_xlfn.STDEV.P(E14,I14,M14)</f>
-        <v>1.4450000000000018E-2</v>
+        <v>1.150000000000001E-2</v>
       </c>
       <c r="F16" s="1">
         <f>_xlfn.STDEV.P(F14,J14,N14)</f>
-        <v>2.5650000000000006E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+        <v>1.9500000000000073E-3</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="6">
         <f>CONFIDENCE(P$3,C16,3)</f>
-        <v>5.9286624320058559E-3</v>
+        <v>2.608611470082579E-3</v>
       </c>
       <c r="D17" s="6">
         <f>CONFIDENCE(P$3,D16,3)</f>
-        <v>1.0375159256010329E-2</v>
+        <v>1.9564586025619343E-3</v>
       </c>
       <c r="E17" s="6">
         <f>CONFIDENCE(P$3,E16,3)</f>
-        <v>1.713383442849712E-2</v>
+        <v>1.363592359361362E-2</v>
       </c>
       <c r="F17" s="7">
         <f>CONFIDENCE(P$3,F16,3)</f>
-        <v>3.0414038276190356E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>7</v>
+        <v>2.3121783484823157E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>19</v>
       </c>
       <c r="C19" s="1">
         <v>0.94710000000000005</v>
       </c>
       <c r="D19" s="1">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.69620000000000004</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.75690000000000002</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.94010000000000005</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.96819999999999995</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.70420000000000005</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.94159999999999999</v>
+      </c>
+      <c r="L19" s="1">
         <v>0.96850000000000003</v>
       </c>
-      <c r="E19" s="1">
-        <v>0.77880000000000005</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.76859999999999995</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.94910000000000005</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.96479999999999999</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.81520000000000004</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0.77129999999999999</v>
-      </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="M19" s="1">
+        <v>0.72889999999999999</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.73709999999999998</v>
+      </c>
+      <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="6">
         <f>AVERAGE(C19,G19,K19)</f>
-        <v>0.94810000000000005</v>
+        <v>0.9429333333333334</v>
       </c>
       <c r="D20" s="6">
         <f>AVERAGE(D19,H19,L19)</f>
-        <v>0.96665000000000001</v>
+        <v>0.9724666666666667</v>
       </c>
       <c r="E20" s="6">
         <f>AVERAGE(E19,I19,M19)</f>
-        <v>0.79700000000000004</v>
+        <v>0.70976666666666677</v>
       </c>
       <c r="F20" s="7">
         <f>AVERAGE(F19,J19,N19)</f>
-        <v>0.76994999999999991</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0.73609999999999998</v>
+      </c>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="1">
         <f>_xlfn.STDEV.P(C19,G19,K19)</f>
-        <v>1.0000000000000009E-3</v>
+        <v>3.009245014211309E-3</v>
       </c>
       <c r="D21" s="1">
         <f>_xlfn.STDEV.P(D19,H19,L19)</f>
-        <v>1.8500000000000183E-3</v>
+        <v>5.8231339404902103E-3</v>
       </c>
       <c r="E21" s="1">
         <f>_xlfn.STDEV.P(E19,I19,M19)</f>
-        <v>1.8199999999999994E-2</v>
+        <v>1.3917934074024358E-2</v>
       </c>
       <c r="F21" s="1">
         <f>_xlfn.STDEV.P(F19,J19,N19)</f>
-        <v>1.3500000000000179E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+        <v>1.7405746177627652E-2</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="6">
         <f>CONFIDENCE(P$3,C21,3)</f>
-        <v>1.1857324864011844E-3</v>
+        <v>3.5681595728911395E-3</v>
       </c>
       <c r="D22" s="6">
         <f>CONFIDENCE(P$3,D21,3)</f>
-        <v>2.1936050998422108E-3</v>
+        <v>6.9046790859045764E-3</v>
       </c>
       <c r="E22" s="6">
         <f>CONFIDENCE(P$3,E21,3)</f>
-        <v>2.1580331252501528E-2</v>
+        <v>1.6502946575160653E-2</v>
       </c>
       <c r="F22" s="7">
         <f>CONFIDENCE(P$3,F21,3)</f>
-        <v>1.6007388566416185E-3</v>
+        <v>2.0638558692866325E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.96209999999999996</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.98150000000000004</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.80720000000000003</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.82569999999999999</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.94810000000000005</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.96560000000000001</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.75239999999999996</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.95809999999999995</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.7611</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.80369999999999997</v>
+      </c>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="6">
+        <f>AVERAGE(C24,G24,K24)</f>
+        <v>0.95610000000000006</v>
+      </c>
+      <c r="D25" s="6">
+        <f>AVERAGE(D24,H24,L24)</f>
+        <v>0.97673333333333334</v>
+      </c>
+      <c r="E25" s="6">
+        <f>AVERAGE(E24,I24,M24)</f>
+        <v>0.78609999999999991</v>
+      </c>
+      <c r="F25" s="7">
+        <f>AVERAGE(F24,J24,N24)</f>
+        <v>0.79393333333333338</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1">
+        <f>_xlfn.STDEV.P(C24,G24,K24)</f>
+        <v>5.8878405775518537E-3</v>
+      </c>
+      <c r="D26" s="1">
+        <f>_xlfn.STDEV.P(D24,H24,L24)</f>
+        <v>7.899507720245745E-3</v>
+      </c>
+      <c r="E26" s="1">
+        <f>_xlfn.STDEV.P(E24,I24,M24)</f>
+        <v>1.9021216224696755E-2</v>
+      </c>
+      <c r="F26" s="1">
+        <f>_xlfn.STDEV.P(F24,J24,N24)</f>
+        <v>3.0711163370272323E-2</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="6">
+        <f>CONFIDENCE(P$3,C26,3)</f>
+        <v>6.9814038475543381E-3</v>
+      </c>
+      <c r="D27" s="6">
+        <f>CONFIDENCE(P$3,D26,3)</f>
+        <v>9.3667029304723304E-3</v>
+      </c>
+      <c r="E27" s="6">
+        <f>CONFIDENCE(P$3,E26,3)</f>
+        <v>2.255407400848421E-2</v>
+      </c>
+      <c r="F27" s="7">
+        <f>CONFIDENCE(P$3,F26,3)</f>
+        <v>3.6415224103305943E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.94910000000000005</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.96479999999999999</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.81520000000000004</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.77129999999999999</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.95209999999999995</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.98080000000000001</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.73729999999999996</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.78380000000000005</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.94710000000000005</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.96850000000000003</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0.77880000000000005</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.76859999999999995</v>
+      </c>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="6">
+        <f>AVERAGE(C29,G29,K29)</f>
+        <v>0.94943333333333335</v>
+      </c>
+      <c r="D30" s="6">
+        <f>AVERAGE(D29,H29,L29)</f>
+        <v>0.9713666666666666</v>
+      </c>
+      <c r="E30" s="6">
+        <f>AVERAGE(E29,I29,M29)</f>
+        <v>0.77710000000000001</v>
+      </c>
+      <c r="F30" s="7">
+        <f>AVERAGE(F29,J29,N29)</f>
+        <v>0.77456666666666651</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1">
+        <f>_xlfn.STDEV.P(C29,G29,K29)</f>
+        <v>2.0548046676562791E-3</v>
+      </c>
+      <c r="D31" s="1">
+        <f>_xlfn.STDEV.P(D29,H29,L29)</f>
+        <v>6.8392657175719946E-3</v>
+      </c>
+      <c r="E31" s="1">
+        <f>_xlfn.STDEV.P(E29,I29,M29)</f>
+        <v>3.1825252028329157E-2</v>
+      </c>
+      <c r="F31" s="1">
+        <f>_xlfn.STDEV.P(F29,J29,N29)</f>
+        <v>6.6213459524648594E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="6">
+        <f>CONFIDENCE(P$3,C31,3)</f>
+        <v>2.4364486476488368E-3</v>
+      </c>
+      <c r="D32" s="6">
+        <f>CONFIDENCE(P$3,D31,3)</f>
+        <v>8.109539544455013E-3</v>
+      </c>
+      <c r="E32" s="6">
+        <f>CONFIDENCE(P$3,E31,3)</f>
+        <v>3.7736235217895028E-2</v>
+      </c>
+      <c r="F32" s="7">
+        <f>CONFIDENCE(P$3,F31,3)</f>
+        <v>7.8511449995385691E-3</v>
       </c>
     </row>
   </sheetData>

--- a/final_scores.xlsx
+++ b/final_scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kilianzell/Desktop/CS502_SUBMISSION/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA7F670-92D3-AC4D-9F48-B118DD10D7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A50578E-8C8A-FE47-8B7E-7070C9B404C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{4591BD1D-650A-4B43-9DF4-A01C78A19F09}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" activeTab="1" xr2:uid="{4591BD1D-650A-4B43-9DF4-A01C78A19F09}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL_SEG" sheetId="23" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="24">
   <si>
     <t>simple_cnn</t>
   </si>
@@ -629,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531AE17C-0835-C946-A84D-02EAD90A8634}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -699,263 +699,365 @@
       <c r="D4" s="1">
         <v>0.31090000000000001</v>
       </c>
+      <c r="E4" s="1">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.3417</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.50570000000000004</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.3291</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.73280000000000001</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1E-4</v>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6">
+        <f>AVERAGE(C4,E4,G4)</f>
+        <v>0.5053333333333333</v>
+      </c>
+      <c r="D5" s="7">
+        <f>AVERAGE(D4,F4,H4)</f>
+        <v>0.32723333333333332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <f>_xlfn.STDEV.P(C4,E4,G4)</f>
+        <v>6.0068479439904189E-3</v>
+      </c>
+      <c r="D6" s="1">
+        <f>_xlfn.STDEV.P(D4,F4,H4)</f>
+        <v>1.264313603853446E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.94769999999999999</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.89510000000000001</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.94340000000000002</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.8891</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.94279999999999997</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.8851</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6">
-        <f>AVERAGE(C7,E7,G7)</f>
-        <v>0.94463333333333332</v>
-      </c>
-      <c r="D8" s="7">
-        <f>AVERAGE(D7,F7,H7)</f>
-        <v>0.88976666666666659</v>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6">
+        <f>CONFIDENCE(J3,C6,3)</f>
+        <v>7.1225147480615944E-3</v>
+      </c>
+      <c r="D7" s="7">
+        <f>CONFIDENCE(J3,D6,3)</f>
+        <v>1.4991377130879871E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1">
-        <f>_xlfn.STDEV.P(C7,E7,G7)</f>
-        <v>2.1822516404443868E-3</v>
+        <v>0.73280000000000001</v>
       </c>
       <c r="D9" s="1">
-        <f>_xlfn.STDEV.P(D7,F7,H7)</f>
-        <v>4.1096093353126546E-3</v>
+        <v>1E-4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.71850000000000003</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.74329999999999996</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1E-4</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6">
+        <f>AVERAGE(C9,E9,G9)</f>
+        <v>0.73153333333333326</v>
+      </c>
+      <c r="D10" s="7">
+        <f>AVERAGE(D9,F9,H9)</f>
+        <v>6.666666666666667E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <f>_xlfn.STDEV.P(C9,E9,G9)</f>
+        <v>1.0164098036170664E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <f>_xlfn.STDEV.P(D9,F9,H9)</f>
+        <v>4.7140452079103176E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="6">
-        <f>CONFIDENCE(J3,C9,3)</f>
-        <v>2.5875666635771836E-3</v>
-      </c>
-      <c r="D10" s="7">
-        <f>CONFIDENCE(J3,D9,3)</f>
-        <v>4.8728972952977881E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.95209999999999995</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.94820000000000004</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.95130000000000003</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.90500000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6">
-        <f>AVERAGE(C12,E12,G12)</f>
-        <v>0.95053333333333345</v>
-      </c>
-      <c r="D13" s="7">
-        <f>AVERAGE(D12,F12,H12)</f>
-        <v>0.90399999999999991</v>
+      <c r="C12" s="6">
+        <f>CONFIDENCE(J3,C11,3)</f>
+        <v>1.2051901236454023E-2</v>
+      </c>
+      <c r="D12" s="7">
+        <f>CONFIDENCE(J3,D11,3)</f>
+        <v>5.589596545383084E-5</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>15</v>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="C14" s="1">
-        <f>_xlfn.STDEV.P(C12,E12,G12)</f>
-        <v>1.6819301082056839E-3</v>
+        <v>0.94769999999999999</v>
       </c>
       <c r="D14" s="1">
-        <f>_xlfn.STDEV.P(D12,F12,H12)</f>
-        <v>4.5460605656619558E-3</v>
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.94340000000000002</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.8891</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.94279999999999997</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.8851</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <f>AVERAGE(C14,E14,G14)</f>
+        <v>0.94463333333333332</v>
+      </c>
+      <c r="D15" s="7">
+        <f>AVERAGE(D14,F14,H14)</f>
+        <v>0.88976666666666659</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <f>_xlfn.STDEV.P(C14,E14,G14)</f>
+        <v>2.1822516404443868E-3</v>
+      </c>
+      <c r="D16" s="1">
+        <f>_xlfn.STDEV.P(D14,F14,H14)</f>
+        <v>4.1096093353126546E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="6">
-        <f>CONFIDENCE(J3,C14,3)</f>
-        <v>1.9943191691557368E-3</v>
-      </c>
-      <c r="D15" s="7">
-        <f>CONFIDENCE(J3,D14,3)</f>
-        <v>5.3904116978527204E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.9556</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.91949999999999998</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.95569999999999999</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.92049999999999998</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.95220000000000005</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.91349999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="6">
-        <f>AVERAGE(C17,E17,G17)</f>
-        <v>0.95450000000000002</v>
-      </c>
-      <c r="D18" s="7">
-        <f>AVERAGE(D17,F17,H17)</f>
-        <v>0.91783333333333328</v>
+      <c r="C17" s="6">
+        <f>CONFIDENCE(J3,C16,3)</f>
+        <v>2.5875666635771836E-3</v>
+      </c>
+      <c r="D17" s="7">
+        <f>CONFIDENCE(J3,D16,3)</f>
+        <v>4.8728972952977881E-3</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>15</v>
+      <c r="B19" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="1">
-        <f>_xlfn.STDEV.P(C17,E17,G17)</f>
-        <v>1.6268579122549684E-3</v>
+        <v>0.95209999999999995</v>
       </c>
       <c r="D19" s="1">
-        <f>_xlfn.STDEV.P(D17,F17,H17)</f>
-        <v>3.0912061651652374E-3</v>
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.94820000000000004</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.90500000000000003</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="6">
+        <f>AVERAGE(C19,E19,G19)</f>
+        <v>0.95053333333333345</v>
+      </c>
+      <c r="D20" s="7">
+        <f>AVERAGE(D19,F19,H19)</f>
+        <v>0.90399999999999991</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1">
+        <f>_xlfn.STDEV.P(C19,E19,G19)</f>
+        <v>1.6819301082056839E-3</v>
+      </c>
+      <c r="D21" s="1">
+        <f>_xlfn.STDEV.P(D19,F19,H19)</f>
+        <v>4.5460605656619558E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="6">
-        <f>CONFIDENCE(J3,C19,3)</f>
-        <v>1.9290182773195217E-3</v>
-      </c>
-      <c r="D20" s="7">
-        <f>CONFIDENCE(J3,D19,3)</f>
-        <v>3.6653435722000431E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.95660000000000001</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.95679999999999998</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0.9234</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.95309999999999995</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.91449999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="6">
-        <f>AVERAGE(C22,E22,G22)</f>
-        <v>0.9554999999999999</v>
-      </c>
-      <c r="D23" s="7">
-        <f>AVERAGE(D22,F22,H22)</f>
-        <v>0.91963333333333341</v>
+      <c r="C22" s="6">
+        <f>CONFIDENCE(J3,C21,3)</f>
+        <v>1.9943191691557368E-3</v>
+      </c>
+      <c r="D22" s="7">
+        <f>CONFIDENCE(J3,D21,3)</f>
+        <v>5.3904116978527204E-3</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>15</v>
+      <c r="B24" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="C24" s="1">
-        <f>_xlfn.STDEV.P(C22,E22,G22)</f>
-        <v>1.6990193249833098E-3</v>
+        <v>0.9556</v>
       </c>
       <c r="D24" s="1">
-        <f>_xlfn.STDEV.P(D22,F22,H22)</f>
-        <v>3.7597281225582868E-3</v>
+        <v>0.91949999999999998</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.95569999999999999</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.92049999999999998</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.95220000000000005</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.91349999999999998</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="6">
+        <f>AVERAGE(C24,E24,G24)</f>
+        <v>0.95450000000000002</v>
+      </c>
+      <c r="D25" s="7">
+        <f>AVERAGE(D24,F24,H24)</f>
+        <v>0.91783333333333328</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1">
+        <f>_xlfn.STDEV.P(C24,E24,G24)</f>
+        <v>1.6268579122549684E-3</v>
+      </c>
+      <c r="D26" s="1">
+        <f>_xlfn.STDEV.P(D24,F24,H24)</f>
+        <v>3.0912061651652374E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="6">
-        <f>CONFIDENCE(J3,C24,3)</f>
+      <c r="C27" s="6">
+        <f>CONFIDENCE(J3,C26,3)</f>
+        <v>1.9290182773195217E-3</v>
+      </c>
+      <c r="D27" s="7">
+        <f>CONFIDENCE(J3,D26,3)</f>
+        <v>3.6653435722000431E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.95660000000000001</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.95679999999999998</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.9234</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.91449999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="6">
+        <f>AVERAGE(C29,E29,G29)</f>
+        <v>0.9554999999999999</v>
+      </c>
+      <c r="D30" s="7">
+        <f>AVERAGE(D29,F29,H29)</f>
+        <v>0.91963333333333341</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1">
+        <f>_xlfn.STDEV.P(C29,E29,G29)</f>
+        <v>1.6990193249833098E-3</v>
+      </c>
+      <c r="D31" s="1">
+        <f>_xlfn.STDEV.P(D29,F29,H29)</f>
+        <v>3.7597281225582868E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="6">
+        <f>CONFIDENCE(J3,C31,3)</f>
         <v>2.0145824086561198E-3</v>
       </c>
-      <c r="D25" s="7">
-        <f>CONFIDENCE(J3,D24,3)</f>
+      <c r="D32" s="7">
+        <f>CONFIDENCE(J3,D31,3)</f>
         <v>4.4580317749534897E-3</v>
       </c>
     </row>
@@ -989,7 +1091,7 @@
   <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1312,6 +1414,18 @@
       <c r="J14" s="1">
         <v>0.69569999999999999</v>
       </c>
+      <c r="K14" s="1">
+        <v>0.9466</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.95760000000000001</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.85240000000000005</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.76990000000000003</v>
+      </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1327,19 +1441,19 @@
       </c>
       <c r="C15" s="6">
         <f>AVERAGE(C14,G14,K14)</f>
-        <v>0.9244</v>
+        <v>0.93179999999999996</v>
       </c>
       <c r="D15" s="6">
         <f>AVERAGE(D14,H14,L14)</f>
-        <v>0.95104999999999995</v>
+        <v>0.95323333333333338</v>
       </c>
       <c r="E15" s="6">
         <f>AVERAGE(E14,I14,M14)</f>
-        <v>0.73520000000000008</v>
+        <v>0.77426666666666666</v>
       </c>
       <c r="F15" s="7">
         <f>AVERAGE(F14,J14,N14)</f>
-        <v>0.69374999999999998</v>
+        <v>0.71913333333333329</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -1348,19 +1462,19 @@
       </c>
       <c r="C16" s="1">
         <f>_xlfn.STDEV.P(C14,G14,K14)</f>
-        <v>2.1999999999999797E-3</v>
+        <v>1.0618223329101088E-2</v>
       </c>
       <c r="D16" s="1">
         <f>_xlfn.STDEV.P(D14,H14,L14)</f>
-        <v>1.6499999999999848E-3</v>
+        <v>3.3688111981660324E-3</v>
       </c>
       <c r="E16" s="1">
         <f>_xlfn.STDEV.P(E14,I14,M14)</f>
-        <v>1.150000000000001E-2</v>
+        <v>5.6040838283840447E-2</v>
       </c>
       <c r="F16" s="1">
         <f>_xlfn.STDEV.P(F14,J14,N14)</f>
-        <v>1.9500000000000073E-3</v>
+        <v>3.5932745820800055E-2</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1373,19 +1487,19 @@
       </c>
       <c r="C17" s="6">
         <f>CONFIDENCE(P$3,C16,3)</f>
-        <v>2.608611470082579E-3</v>
+        <v>1.2590372349178083E-2</v>
       </c>
       <c r="D17" s="6">
         <f>CONFIDENCE(P$3,D16,3)</f>
-        <v>1.9564586025619343E-3</v>
+        <v>3.9945088782175585E-3</v>
       </c>
       <c r="E17" s="6">
         <f>CONFIDENCE(P$3,E16,3)</f>
-        <v>1.363592359361362E-2</v>
+        <v>6.6449442518304758E-2</v>
       </c>
       <c r="F17" s="7">
         <f>CONFIDENCE(P$3,F16,3)</f>
-        <v>2.3121783484823157E-3</v>
+        <v>4.2606624045318973E-2</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.2">
